--- a/PIRSNT_18_V_timing_input_500MHz_post_lpe_v3_tsmc3eff_meas.xlsx
+++ b/PIRSNT_18_V_timing_input_500MHz_post_lpe_v3_tsmc3eff_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="60">
   <si>
     <t>Process</t>
   </si>
@@ -52,6 +52,9 @@
     <t>choose</t>
   </si>
   <si>
+    <t>vie</t>
+  </si>
+  <si>
     <t>tr_pad (pS)</t>
   </si>
   <si>
@@ -106,6 +109,9 @@
     <t>tsmc3eff (1)</t>
   </si>
   <si>
+    <t>tsmc3eff (2)</t>
+  </si>
+  <si>
     <t>moshv_ff</t>
   </si>
   <si>
@@ -133,7 +139,10 @@
     <t>rcbest_ccbest</t>
   </si>
   <si>
-    <t>tsmc3eff (2)</t>
+    <t>tsmc3eff (3)</t>
+  </si>
+  <si>
+    <t>tsmc3eff (4)</t>
   </si>
   <si>
     <t>moshv_ss</t>
@@ -152,6 +161,12 @@
   </si>
   <si>
     <t>rcworst_ccworst</t>
+  </si>
+  <si>
+    <t>tsmc3eff (5)</t>
+  </si>
+  <si>
+    <t>n/a</t>
   </si>
   <si>
     <t>Min</t>
@@ -185,7 +200,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,13 +216,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000 "/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -222,9 +250,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +557,7 @@
     <col min="1" max="101" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1">
+    <row r="1" spans="1:19" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -583,358 +612,523 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2">
+        <v>580.172</v>
+      </c>
+      <c r="O2">
+        <v>844.883</v>
+      </c>
+      <c r="P2">
+        <v>53.1853</v>
+      </c>
+      <c r="Q2">
+        <v>39.88870000000001</v>
+      </c>
+      <c r="R2">
+        <v>45.3873</v>
+      </c>
+      <c r="S2">
+        <v>55.1687</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3">
+        <v>580.172</v>
+      </c>
+      <c r="O3">
+        <v>844.883</v>
+      </c>
+      <c r="P3">
+        <v>53.1853</v>
+      </c>
+      <c r="Q3">
+        <v>39.88870000000001</v>
+      </c>
+      <c r="R3">
+        <v>45.3873</v>
+      </c>
+      <c r="S3">
+        <v>55.1687</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4">
+        <v>455.98</v>
+      </c>
+      <c r="O4">
+        <v>658.0179999999999</v>
+      </c>
+      <c r="P4">
+        <v>52.2804</v>
+      </c>
+      <c r="Q4">
+        <v>35.2232</v>
+      </c>
+      <c r="R4">
+        <v>37.4285</v>
+      </c>
+      <c r="S4">
+        <v>53.4958</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5">
+        <v>455.98</v>
+      </c>
+      <c r="O5">
+        <v>658.0179999999999</v>
+      </c>
+      <c r="P5">
+        <v>52.2804</v>
+      </c>
+      <c r="Q5">
+        <v>35.2232</v>
+      </c>
+      <c r="R5">
+        <v>37.4285</v>
+      </c>
+      <c r="S5">
+        <v>53.4958</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6">
+        <v>830.4340000000001</v>
+      </c>
+      <c r="O6">
+        <v>1246.93</v>
+      </c>
+      <c r="P6">
+        <v>57.0161</v>
+      </c>
+      <c r="Q6">
+        <v>51.0413</v>
+      </c>
+      <c r="R6">
+        <v>67.7794</v>
+      </c>
+      <c r="S6">
+        <v>61.6922</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="1" customFormat="1">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2">
-        <v>580.1660000000001</v>
-      </c>
-      <c r="N2">
-        <v>845.203</v>
-      </c>
-      <c r="O2">
-        <v>51.1555</v>
-      </c>
-      <c r="P2">
-        <v>39.9047</v>
-      </c>
-      <c r="Q2">
-        <v>45.3644</v>
-      </c>
-      <c r="R2">
-        <v>52.1457</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3">
-        <v>455.984</v>
-      </c>
-      <c r="N3">
-        <v>658.277</v>
-      </c>
-      <c r="O3">
-        <v>50.9216</v>
-      </c>
-      <c r="P3">
-        <v>35.21550000000001</v>
-      </c>
-      <c r="Q3">
-        <v>37.4407</v>
-      </c>
-      <c r="R3">
-        <v>51.5295</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4">
-        <v>830.443</v>
-      </c>
-      <c r="N4">
-        <v>1247.67</v>
-      </c>
-      <c r="O4">
-        <v>52.0969</v>
-      </c>
-      <c r="P4">
-        <v>51.0577</v>
-      </c>
-      <c r="Q4">
-        <v>67.8278</v>
-      </c>
-      <c r="R4">
-        <v>54.4266</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" s="1" customFormat="1">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" s="1" customFormat="1">
-      <c r="L6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M6" s="1">
-        <v>455.984</v>
-      </c>
-      <c r="N6" s="1">
-        <v>658.277</v>
-      </c>
-      <c r="O6" s="1">
-        <v>50.9216</v>
-      </c>
-      <c r="P6" s="1">
-        <v>35.21550000000001</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>37.4407</v>
-      </c>
-      <c r="R6" s="1">
-        <v>51.5295</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" s="1" customFormat="1">
-      <c r="L7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M7" s="1">
-        <v>830.443</v>
-      </c>
-      <c r="N7" s="1">
-        <v>1247.67</v>
-      </c>
-      <c r="O7" s="1">
-        <v>52.0969</v>
-      </c>
-      <c r="P7" s="1">
-        <v>51.0577</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>67.8278</v>
-      </c>
-      <c r="R7" s="1">
-        <v>54.4266</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" s="1" customFormat="1">
-      <c r="L8" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" s="1" customFormat="1">
-      <c r="L9" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" s="1" customFormat="1">
-      <c r="L10" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" s="1" customFormat="1">
-      <c r="L11" s="1" t="s">
+    </row>
+    <row r="9" spans="1:19" s="1" customFormat="1">
+      <c r="M9" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" s="1" customFormat="1">
-      <c r="L12" s="1" t="s">
+      <c r="N9" s="1">
+        <v>455.98</v>
+      </c>
+      <c r="O9" s="1">
+        <v>658.0179999999999</v>
+      </c>
+      <c r="P9" s="1">
+        <v>52.2804</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>35.2232</v>
+      </c>
+      <c r="R9" s="1">
+        <v>37.4285</v>
+      </c>
+      <c r="S9" s="1">
+        <v>53.4958</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="1" customFormat="1">
+      <c r="M10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="M12" s="1">
-        <v>622.1976666666667</v>
-      </c>
-      <c r="N12" s="1">
-        <v>917.0500000000001</v>
-      </c>
-      <c r="O12" s="1">
-        <v>51.39133333333334</v>
-      </c>
-      <c r="P12" s="1">
-        <v>42.05930000000001</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>50.21096666666667</v>
-      </c>
-      <c r="R12" s="1">
-        <v>52.7006</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" s="1" customFormat="1">
-      <c r="L13" s="1" t="s">
+      <c r="N10" s="1">
+        <v>830.4340000000001</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1246.93</v>
+      </c>
+      <c r="P10" s="1">
+        <v>57.0161</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>51.0413</v>
+      </c>
+      <c r="R10" s="1">
+        <v>67.7794</v>
+      </c>
+      <c r="S10" s="1">
+        <v>61.6922</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="1" customFormat="1">
+      <c r="M11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M13" s="1">
-        <v>155.734563541802</v>
-      </c>
-      <c r="N13" s="1">
-        <v>245.9234578332589</v>
-      </c>
-      <c r="O13" s="1">
-        <v>0.5079668908720542</v>
-      </c>
-      <c r="P13" s="1">
-        <v>6.644574281823228</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>12.87014291408176</v>
-      </c>
-      <c r="R13" s="1">
-        <v>1.246122682563801</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" s="1" customFormat="1">
-      <c r="L14" s="1" t="s">
+    </row>
+    <row r="12" spans="1:19" s="1" customFormat="1">
+      <c r="M12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M14" s="1">
-        <v>25.02975692212528</v>
-      </c>
-      <c r="N14" s="1">
-        <v>26.81679928392769</v>
-      </c>
-      <c r="O14" s="1">
-        <v>0.9884290947994878</v>
-      </c>
-      <c r="P14" s="1">
-        <v>15.79810953064656</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>25.63213530526549</v>
-      </c>
-      <c r="R14" s="1">
-        <v>2.364532249279516</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" s="1" customFormat="1"/>
+    </row>
+    <row r="13" spans="1:19" s="1" customFormat="1">
+      <c r="M13" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="1" customFormat="1">
+      <c r="M14" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" s="1" customFormat="1">
+      <c r="M15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N15" s="1">
+        <v>580.5476000000001</v>
+      </c>
+      <c r="O15" s="1">
+        <v>850.5463999999999</v>
+      </c>
+      <c r="P15" s="1">
+        <v>53.5895</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>40.25302000000001</v>
+      </c>
+      <c r="R15" s="1">
+        <v>46.6822</v>
+      </c>
+      <c r="S15" s="1">
+        <v>55.80424000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="1" customFormat="1">
+      <c r="M16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N16" s="1">
+        <v>136.7316122885999</v>
+      </c>
+      <c r="O16" s="1">
+        <v>215.0899700874962</v>
+      </c>
+      <c r="P16" s="1">
+        <v>1.760444742671579</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>5.783608250011406</v>
+      </c>
+      <c r="R16" s="1">
+        <v>11.13289995679472</v>
+      </c>
+      <c r="S16" s="1">
+        <v>3.037554464104305</v>
+      </c>
+    </row>
+    <row r="17" spans="13:19" s="1" customFormat="1">
+      <c r="M17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N17" s="1">
+        <v>23.55217940589193</v>
+      </c>
+      <c r="O17" s="1">
+        <v>25.28844635489566</v>
+      </c>
+      <c r="P17" s="1">
+        <v>3.285055360978511</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>14.36813498716719</v>
+      </c>
+      <c r="R17" s="1">
+        <v>23.84827612407882</v>
+      </c>
+      <c r="S17" s="1">
+        <v>5.443232385396351</v>
+      </c>
+    </row>
+    <row r="18" spans="13:19" s="1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PIRSNT_18_V_timing_input_500MHz_post_lpe_v3_tsmc3eff_meas.xlsx
+++ b/PIRSNT_18_V_timing_input_500MHz_post_lpe_v3_tsmc3eff_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="59">
   <si>
     <t>Process</t>
   </si>
@@ -164,9 +164,6 @@
   </si>
   <si>
     <t>tsmc3eff (5)</t>
-  </si>
-  <si>
-    <t>n/a</t>
   </si>
   <si>
     <t>Min</t>
@@ -200,7 +197,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,26 +213,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000 "/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -250,10 +234,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -651,22 +634,22 @@
         <v>29</v>
       </c>
       <c r="N2">
-        <v>580.172</v>
+        <v>66.31320000000001</v>
       </c>
       <c r="O2">
-        <v>844.883</v>
+        <v>104.803</v>
       </c>
       <c r="P2">
-        <v>53.1853</v>
+        <v>49.8698</v>
       </c>
       <c r="Q2">
-        <v>39.88870000000001</v>
+        <v>39.8913</v>
       </c>
       <c r="R2">
-        <v>45.3873</v>
+        <v>45.4111</v>
       </c>
       <c r="S2">
-        <v>55.1687</v>
+        <v>50.3804</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -704,22 +687,22 @@
         <v>29</v>
       </c>
       <c r="N3">
-        <v>580.172</v>
+        <v>66.31320000000001</v>
       </c>
       <c r="O3">
-        <v>844.883</v>
+        <v>104.803</v>
       </c>
       <c r="P3">
-        <v>53.1853</v>
+        <v>49.8698</v>
       </c>
       <c r="Q3">
-        <v>39.88870000000001</v>
+        <v>39.8913</v>
       </c>
       <c r="R3">
-        <v>45.3873</v>
+        <v>45.4111</v>
       </c>
       <c r="S3">
-        <v>55.1687</v>
+        <v>50.3804</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -757,22 +740,22 @@
         <v>40</v>
       </c>
       <c r="N4">
-        <v>455.98</v>
+        <v>51.9935</v>
       </c>
       <c r="O4">
-        <v>658.0179999999999</v>
+        <v>81.25700000000001</v>
       </c>
       <c r="P4">
-        <v>52.2804</v>
+        <v>49.9694</v>
       </c>
       <c r="Q4">
-        <v>35.2232</v>
+        <v>35.1892</v>
       </c>
       <c r="R4">
-        <v>37.4285</v>
+        <v>37.4545</v>
       </c>
       <c r="S4">
-        <v>53.4958</v>
+        <v>50.2315</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -810,22 +793,22 @@
         <v>40</v>
       </c>
       <c r="N5">
-        <v>455.98</v>
+        <v>51.9935</v>
       </c>
       <c r="O5">
-        <v>658.0179999999999</v>
+        <v>81.25700000000001</v>
       </c>
       <c r="P5">
-        <v>52.2804</v>
+        <v>49.9694</v>
       </c>
       <c r="Q5">
-        <v>35.2232</v>
+        <v>35.1892</v>
       </c>
       <c r="R5">
-        <v>37.4285</v>
+        <v>37.4545</v>
       </c>
       <c r="S5">
-        <v>53.4958</v>
+        <v>50.2315</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -863,22 +846,22 @@
         <v>48</v>
       </c>
       <c r="N6">
-        <v>830.4340000000001</v>
+        <v>96.2876</v>
       </c>
       <c r="O6">
-        <v>1246.93</v>
+        <v>148.728</v>
       </c>
       <c r="P6">
-        <v>57.0161</v>
+        <v>50.0746</v>
       </c>
       <c r="Q6">
-        <v>51.0413</v>
+        <v>50.9726</v>
       </c>
       <c r="R6">
-        <v>67.7794</v>
+        <v>67.8028</v>
       </c>
       <c r="S6">
-        <v>61.6922</v>
+        <v>51.6692</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -915,23 +898,23 @@
       <c r="K7" t="s">
         <v>48</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>50</v>
+      <c r="N7">
+        <v>96.2876</v>
+      </c>
+      <c r="O7">
+        <v>148.728</v>
+      </c>
+      <c r="P7">
+        <v>50.0746</v>
+      </c>
+      <c r="Q7">
+        <v>50.9726</v>
+      </c>
+      <c r="R7">
+        <v>67.8028</v>
+      </c>
+      <c r="S7">
+        <v>51.6692</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="1" customFormat="1">
@@ -995,137 +978,137 @@
     </row>
     <row r="9" spans="1:19" s="1" customFormat="1">
       <c r="M9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N9" s="1">
-        <v>455.98</v>
+        <v>51.9935</v>
       </c>
       <c r="O9" s="1">
-        <v>658.0179999999999</v>
+        <v>81.25700000000001</v>
       </c>
       <c r="P9" s="1">
-        <v>52.2804</v>
+        <v>49.8698</v>
       </c>
       <c r="Q9" s="1">
-        <v>35.2232</v>
+        <v>35.1892</v>
       </c>
       <c r="R9" s="1">
-        <v>37.4285</v>
+        <v>37.4545</v>
       </c>
       <c r="S9" s="1">
-        <v>53.4958</v>
+        <v>50.2315</v>
       </c>
     </row>
     <row r="10" spans="1:19" s="1" customFormat="1">
       <c r="M10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N10" s="1">
-        <v>830.4340000000001</v>
+        <v>96.2876</v>
       </c>
       <c r="O10" s="1">
-        <v>1246.93</v>
+        <v>148.728</v>
       </c>
       <c r="P10" s="1">
-        <v>57.0161</v>
+        <v>50.0746</v>
       </c>
       <c r="Q10" s="1">
-        <v>51.0413</v>
+        <v>50.9726</v>
       </c>
       <c r="R10" s="1">
-        <v>67.7794</v>
+        <v>67.8028</v>
       </c>
       <c r="S10" s="1">
-        <v>61.6922</v>
+        <v>51.6692</v>
       </c>
     </row>
     <row r="11" spans="1:19" s="1" customFormat="1">
       <c r="M11" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:19" s="1" customFormat="1">
       <c r="M12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="1" customFormat="1">
       <c r="M13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:19" s="1" customFormat="1">
       <c r="M14" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:19" s="1" customFormat="1">
       <c r="M15" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N15" s="1">
-        <v>580.5476000000001</v>
+        <v>71.53143333333334</v>
       </c>
       <c r="O15" s="1">
-        <v>850.5463999999999</v>
+        <v>111.596</v>
       </c>
       <c r="P15" s="1">
-        <v>53.5895</v>
+        <v>49.97126666666667</v>
       </c>
       <c r="Q15" s="1">
-        <v>40.25302000000001</v>
+        <v>42.0177</v>
       </c>
       <c r="R15" s="1">
-        <v>46.6822</v>
+        <v>50.2228</v>
       </c>
       <c r="S15" s="1">
-        <v>55.80424000000001</v>
+        <v>50.76036666666666</v>
       </c>
     </row>
     <row r="16" spans="1:19" s="1" customFormat="1">
       <c r="M16" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N16" s="1">
-        <v>136.7316122885999</v>
+        <v>18.45560968094946</v>
       </c>
       <c r="O16" s="1">
-        <v>215.0899700874962</v>
+        <v>27.96059843184095</v>
       </c>
       <c r="P16" s="1">
-        <v>1.760444742671579</v>
+        <v>0.08361966807449549</v>
       </c>
       <c r="Q16" s="1">
-        <v>5.783608250011406</v>
+        <v>6.616651298554781</v>
       </c>
       <c r="R16" s="1">
-        <v>11.13289995679472</v>
+        <v>12.84832468689985</v>
       </c>
       <c r="S16" s="1">
-        <v>3.037554464104305</v>
+        <v>0.6455108175356584</v>
       </c>
     </row>
     <row r="17" spans="13:19" s="1" customFormat="1">
       <c r="M17" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N17" s="1">
-        <v>23.55217940589193</v>
+        <v>25.80069882697181</v>
       </c>
       <c r="O17" s="1">
-        <v>25.28844635489566</v>
+        <v>25.05519770586845</v>
       </c>
       <c r="P17" s="1">
-        <v>3.285055360978511</v>
+        <v>0.1673354982820037</v>
       </c>
       <c r="Q17" s="1">
-        <v>14.36813498716719</v>
+        <v>15.74729530306224</v>
       </c>
       <c r="R17" s="1">
-        <v>23.84827612407882</v>
+        <v>25.58265307171215</v>
       </c>
       <c r="S17" s="1">
-        <v>5.443232385396351</v>
+        <v>1.271682731873473</v>
       </c>
     </row>
     <row r="18" spans="13:19" s="1" customFormat="1"/>
